--- a/biology/Zoologie/Dorudon/Dorudon.xlsx
+++ b/biology/Zoologie/Dorudon/Dorudon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorudon est un genre fossile de baleine qui a vécu à la fin de l'Éocène au cours de l'étage Priabonien il y a environ entre −37,8 et −33,9 Ma, dans l'actuelle Amérique du Nord et en Égypte.
 </t>
@@ -511,11 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dorudon est créé en 1845 par le naturaliste américain Lewis Reeve Gibbes[1],[2].
-Étymologie
-L'appellation Dorudon, qui signifie « dent harpon », vient du fait que cet animal était carnivore.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dorudon est créé en 1845 par le naturaliste américain Lewis Reeve Gibbes,.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation Dorudon, qui signifie « dent harpon », vient du fait que cet animal était carnivore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dorudon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorudon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pouvait mesurer jusqu'à 5 mètres de longueur et vivait en groupe.
 Un proche cousin de ce dernier, Basilosaurus (également baleine préhistorique), se nourrissait de Dorudon.
@@ -553,38 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dorudon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dorudon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Espèces</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (31 décembre 2016)[3] et BioLib                    (31 décembre 2016)[4] :
-† Dorudon atrox Andrews, 1906  (en illustration) ;
-† Dorudon serratus Gibbes, 1845 − espèce type.</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -606,10 +625,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (31 décembre 2016) et BioLib                    (31 décembre 2016) :
+† Dorudon atrox Andrews, 1906  (en illustration) ;
+† Dorudon serratus Gibbes, 1845 − espèce type.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dorudon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorudon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorudon apparaît dans le documentaire Sur la terre des monstres disparus ainsi que dans les émissions Safari préhistorique: les dents de la mort et Les Monstres du fond des mers.
 </t>
